--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/save10.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/save10.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{9C4CA1DF-75CC-43EE-90BE-40C1D7C926FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A15A0EA6-2DD2-4FCE-9244-7A2F8B9F0E55}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{9C4CA1DF-75CC-43EE-90BE-40C1D7C926FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F05D2BC-B9CB-4052-84B0-AD6ABA5368EB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3050,7 +3050,7 @@
       <c r="I67" s="40"/>
       <c r="J67" s="40"/>
     </row>
-    <row r="68" spans="1:10" ht="31.5">
+    <row r="68" spans="1:10" ht="15.75">
       <c r="A68" s="22" t="s">
         <v>163</v>
       </c>
@@ -3566,9 +3566,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3737,16 +3740,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3754,5 +3754,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/save10.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/save10.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{9C4CA1DF-75CC-43EE-90BE-40C1D7C926FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECE1BEFF-32CA-493A-AB55-4703E77646A2}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{9C4CA1DF-75CC-43EE-90BE-40C1D7C926FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7984CB3-EDA6-47B6-AE33-89A77D0ABD14}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="281">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -595,14 +595,6 @@
   </si>
   <si>
     <t>Post Purchase Upsell Pricing</t>
-  </si>
-  <si>
-    <t>49.95 / 0.00 +
-59.95 / 0.00 x 2</t>
-  </si>
-  <si>
-    <t>29.95 / 0.00 +
-39.95 / 0.00 x 2</t>
   </si>
   <si>
     <t>Post Purchase Upsell Shipping</t>
@@ -671,7 +663,7 @@
     <t>Post Purchase Upsell Promotion 4</t>
   </si>
   <si>
-    <t>Free "Now You See It pH Lip Gloss" - WY1A0042</t>
+    <t>Free Bold &amp; Beautiful Mascara - WY1A0027</t>
   </si>
   <si>
     <t>Free Body Duo - Mitt &amp; 24K gold exfoliating stick - WY1A0200,WY3A0054</t>
@@ -1800,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="S25" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34:Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3748,86 +3740,86 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="31.5">
+    <row r="34" spans="1:25" ht="15.75">
       <c r="A34" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="O34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="R34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="S34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="T34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="U34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="V34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="W34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="X34" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y34" s="33" t="s">
-        <v>190</v>
+      <c r="B34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="C34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="D34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="E34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="F34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="G34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="H34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="I34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="J34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="K34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="L34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="M34" s="32">
+        <v>49.95</v>
+      </c>
+      <c r="N34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="O34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="P34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="Q34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="R34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="S34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="T34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="U34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="V34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="W34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="X34" s="33">
+        <v>29.95</v>
+      </c>
+      <c r="Y34" s="33">
+        <v>29.95</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75">
       <c r="A35" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B35" s="32">
         <v>0</v>
@@ -3904,7 +3896,7 @@
     </row>
     <row r="36" spans="1:25" ht="15.75">
       <c r="A36" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B36" s="28">
         <v>3</v>
@@ -3981,392 +3973,392 @@
     </row>
     <row r="37" spans="1:25" ht="15.75">
       <c r="A37" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="N37" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="L37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="N37" s="38" t="s">
-        <v>195</v>
-      </c>
       <c r="O37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T37" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W37" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y37" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="220.5">
       <c r="A38" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="N38" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="L38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="M38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="N38" s="41" t="s">
-        <v>198</v>
-      </c>
       <c r="O38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T38" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W38" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y38" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="180">
       <c r="A39" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="N39" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="K39" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="L39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="M39" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>201</v>
-      </c>
       <c r="O39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q39" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W39" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y39" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="173.25">
       <c r="A40" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N40" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="M40" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N40" s="44" t="s">
-        <v>204</v>
-      </c>
       <c r="O40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q40" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T40" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W40" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y40" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="31.5">
       <c r="A41" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M41" s="47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y41" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75">
       <c r="A42" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>130</v>
@@ -4443,7 +4435,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75">
       <c r="A43" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>132</v>
@@ -4520,161 +4512,161 @@
     </row>
     <row r="44" spans="1:25" ht="47.25">
       <c r="A44" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="M44" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="N44" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="K44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="L44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="M44" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="O44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="W44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y44" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="15.75">
       <c r="A45" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y45" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="15.75">
       <c r="A46" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -4703,7 +4695,7 @@
     </row>
     <row r="47" spans="1:25" ht="15.75">
       <c r="A47" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -4732,161 +4724,161 @@
     </row>
     <row r="48" spans="1:25" ht="15.75">
       <c r="A48" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q48" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T48" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W48" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y48" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="15.75">
       <c r="A49" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="D49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="E49" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="F49" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="G49" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="H49" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="I49" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="J49" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="K49" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="J49" s="28" t="s">
+      <c r="L49" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="M49" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="68" t="s">
+      <c r="N49" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="68" t="s">
+      <c r="O49" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="N49" s="29" t="s">
+      <c r="P49" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="O49" s="29" t="s">
+      <c r="Q49" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="P49" s="29" t="s">
+      <c r="R49" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="Q49" s="30" t="s">
+      <c r="S49" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="R49" s="30" t="s">
+      <c r="T49" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="S49" s="30" t="s">
+      <c r="U49" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="T49" s="30" t="s">
+      <c r="V49" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="U49" s="30" t="s">
+      <c r="W49" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="V49" s="30" t="s">
+      <c r="X49" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="W49" s="30" t="s">
+      <c r="Y49" s="39" t="s">
         <v>240</v>
-      </c>
-      <c r="X49" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y49" s="39" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="15.75">
       <c r="A50" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B50" s="28">
         <v>3</v>
@@ -4963,7 +4955,7 @@
     </row>
     <row r="51" spans="1:25" ht="15.75">
       <c r="A51" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4992,7 +4984,7 @@
     </row>
     <row r="52" spans="1:25" ht="15.75">
       <c r="A52" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B52" s="32">
         <v>59.95</v>
@@ -5069,7 +5061,7 @@
     </row>
     <row r="53" spans="1:25" ht="15.75">
       <c r="A53" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B53" s="36">
         <v>3.99</v>
@@ -5146,238 +5138,238 @@
     </row>
     <row r="54" spans="1:25" ht="15.75">
       <c r="A54" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q54" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T54" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="V54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W54" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Y54" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="15.75">
       <c r="A55" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q55" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T55" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W55" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y55" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75">
       <c r="A56" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q56" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T56" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="V56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W56" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y56" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="15.75">
       <c r="A57" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B57" s="40">
         <v>3</v>
@@ -5454,7 +5446,7 @@
     </row>
     <row r="58" spans="1:25" s="52" customFormat="1" ht="15.75">
       <c r="A58" s="49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B58" s="50" t="s">
         <v>58</v>
@@ -5531,7 +5523,7 @@
     </row>
     <row r="59" spans="1:25" ht="15.75">
       <c r="A59" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
@@ -5560,7 +5552,7 @@
     </row>
     <row r="60" spans="1:25" ht="15.75">
       <c r="A60" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -5589,7 +5581,7 @@
     </row>
     <row r="61" spans="1:25" ht="15.75">
       <c r="A61" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -5618,7 +5610,7 @@
     </row>
     <row r="62" spans="1:25" ht="15.75">
       <c r="A62" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -5647,7 +5639,7 @@
     </row>
     <row r="63" spans="1:25" ht="15.75">
       <c r="A63" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -5676,7 +5668,7 @@
     </row>
     <row r="64" spans="1:25" ht="15.75">
       <c r="A64" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -5705,7 +5697,7 @@
     </row>
     <row r="65" spans="1:25" ht="15.75">
       <c r="A65" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -5734,7 +5726,7 @@
     </row>
     <row r="66" spans="1:25" ht="15.75">
       <c r="A66" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -5763,7 +5755,7 @@
     </row>
     <row r="67" spans="1:25" ht="15.75">
       <c r="A67" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -5792,7 +5784,7 @@
     </row>
     <row r="68" spans="1:25" ht="15.75">
       <c r="A68" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -5821,7 +5813,7 @@
     </row>
     <row r="69" spans="1:25" ht="15.75">
       <c r="A69" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -5850,7 +5842,7 @@
     </row>
     <row r="70" spans="1:25" ht="15.75">
       <c r="A70" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5879,7 +5871,7 @@
     </row>
     <row r="71" spans="1:25" ht="15.75">
       <c r="A71" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -5908,7 +5900,7 @@
     </row>
     <row r="72" spans="1:25" ht="15.75">
       <c r="A72" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -5937,7 +5929,7 @@
     </row>
     <row r="73" spans="1:25" ht="15.75">
       <c r="A73" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -5966,7 +5958,7 @@
     </row>
     <row r="74" spans="1:25" ht="15.75">
       <c r="A74" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -5995,7 +5987,7 @@
     </row>
     <row r="75" spans="1:25" ht="15.75">
       <c r="A75" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -6024,7 +6016,7 @@
     </row>
     <row r="76" spans="1:25" ht="15.75">
       <c r="A76" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -6053,7 +6045,7 @@
     </row>
     <row r="77" spans="1:25" ht="15.75">
       <c r="A77" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -6082,7 +6074,7 @@
     </row>
     <row r="78" spans="1:25" ht="15.75">
       <c r="A78" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -6111,7 +6103,7 @@
     </row>
     <row r="79" spans="1:25" ht="15.75">
       <c r="A79" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -6140,7 +6132,7 @@
     </row>
     <row r="80" spans="1:25" ht="15.75">
       <c r="A80" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -6169,7 +6161,7 @@
     </row>
     <row r="81" spans="1:25" ht="15.75">
       <c r="A81" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -6227,7 +6219,7 @@
     </row>
     <row r="83" spans="1:25" ht="15.75">
       <c r="A83" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -6256,7 +6248,7 @@
     </row>
     <row r="84" spans="1:25" ht="15.75">
       <c r="A84" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -6285,7 +6277,7 @@
     </row>
     <row r="85" spans="1:25" ht="15.75">
       <c r="A85" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -6314,7 +6306,7 @@
     </row>
     <row r="86" spans="1:25" ht="15.75">
       <c r="A86" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -6343,7 +6335,7 @@
     </row>
     <row r="87" spans="1:25" ht="15.75">
       <c r="A87" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -6372,7 +6364,7 @@
     </row>
     <row r="88" spans="1:25" ht="15.75">
       <c r="A88" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -6401,7 +6393,7 @@
     </row>
     <row r="89" spans="1:25" ht="15.75">
       <c r="A89" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -6430,7 +6422,7 @@
     </row>
     <row r="90" spans="1:25" ht="15.75">
       <c r="A90" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -6459,7 +6451,7 @@
     </row>
     <row r="91" spans="1:25" ht="15.75">
       <c r="A91" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -6488,7 +6480,7 @@
     </row>
     <row r="92" spans="1:25" ht="15.75">
       <c r="A92" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -6517,7 +6509,7 @@
     </row>
     <row r="93" spans="1:25" ht="15.75">
       <c r="A93" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -6546,7 +6538,7 @@
     </row>
     <row r="94" spans="1:25" ht="15.75">
       <c r="A94" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -6575,7 +6567,7 @@
     </row>
     <row r="95" spans="1:25" ht="15.75">
       <c r="A95" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -6604,7 +6596,7 @@
     </row>
     <row r="96" spans="1:25" ht="15.75">
       <c r="A96" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -6633,7 +6625,7 @@
     </row>
     <row r="97" spans="1:25" ht="15.75">
       <c r="A97" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -6662,7 +6654,7 @@
     </row>
     <row r="98" spans="1:25" ht="15.75">
       <c r="A98" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -6691,7 +6683,7 @@
     </row>
     <row r="99" spans="1:25" ht="15.75">
       <c r="A99" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -6720,7 +6712,7 @@
     </row>
     <row r="100" spans="1:25" ht="15.75">
       <c r="A100" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -6749,7 +6741,7 @@
     </row>
     <row r="101" spans="1:25" ht="15.75">
       <c r="A101" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -6778,7 +6770,7 @@
     </row>
     <row r="102" spans="1:25" ht="15.75">
       <c r="A102" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -6807,7 +6799,7 @@
     </row>
     <row r="103" spans="1:25" ht="15.75">
       <c r="A103" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -6836,7 +6828,7 @@
     </row>
     <row r="104" spans="1:25" ht="15.75">
       <c r="A104" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B104" s="58"/>
       <c r="C104" s="58"/>
@@ -6876,6 +6868,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -7040,29 +7047,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/save10.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/save10.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23716"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{9C4CA1DF-75CC-43EE-90BE-40C1D7C926FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7984CB3-EDA6-47B6-AE33-89A77D0ABD14}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{9C4CA1DF-75CC-43EE-90BE-40C1D7C926FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31621064-BB2F-4735-A22C-2C1ECB587BD2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="283">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -178,7 +178,7 @@
     <t>kit-kitshade-giftshade</t>
   </si>
   <si>
-    <t>giftshade</t>
+    <t>GiftShade</t>
   </si>
   <si>
     <t>Blonde</t>
@@ -616,6 +616,10 @@
   </si>
   <si>
     <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $59.95 plus $3.99 for shipping and handling per month, unless you call to cancel. There is no commitment and no minimum to buy.
+All orders are subject to applicable sales tax.</t>
+  </si>
+  <si>
+    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full-size supply of Westmore Beauty. Each shipment will be charged to the card you provide today, in three monthly payments at the low price of $59.95 plus $3.99 for shipping and handling per month, unless you call to cancel.
 All orders are subject to applicable sales tax.</t>
   </si>
   <si>
@@ -650,25 +654,24 @@
     <t>Post Purchase Upsell Promotion 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Special Size Increase!
-</t>
-  </si>
-  <si>
     <t>Post Purchase Upsell Promotion 2</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Post Purchase Upsell Promotion 3</t>
   </si>
   <si>
+    <t>Free Bold &amp; Beautiful Mascara - WY1A0027</t>
+  </si>
+  <si>
+    <t>Free Body Duo - Mitt &amp; 24K gold exfoliating stick - WY1A0200,WY3A0054</t>
+  </si>
+  <si>
     <t>Post Purchase Upsell Promotion 4</t>
   </si>
   <si>
-    <t>Free Bold &amp; Beautiful Mascara - WY1A0027</t>
-  </si>
-  <si>
-    <t>Free Body Duo - Mitt &amp; 24K gold exfoliating stick - WY1A0200,WY3A0054</t>
-  </si>
-  <si>
     <t>Post Purchase Upsell Promotion 5</t>
   </si>
   <si>
@@ -676,6 +679,9 @@
   </si>
   <si>
     <t>Post Purchase Upsell Promotion 6</t>
+  </si>
+  <si>
+    <t>Special Size Increase!</t>
   </si>
   <si>
     <t>Continuity piece count</t>
@@ -948,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +995,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1260,7 +1284,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1397,9 +1421,6 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1473,6 +1494,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1792,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S25" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34:Y34"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1863,18 +1902,18 @@
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
@@ -1935,10 +1974,10 @@
       <c r="K7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="66" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="22" t="s">
@@ -2133,120 +2172,120 @@
       </c>
     </row>
     <row r="10" spans="1:25" s="4" customFormat="1" ht="15.75">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="63" t="s">
+      <c r="R10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="63" t="s">
+      <c r="S10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T10" s="63" t="s">
+      <c r="T10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="63" t="s">
+      <c r="U10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="V10" s="63" t="s">
+      <c r="V10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="W10" s="63" t="s">
+      <c r="W10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="63" t="s">
+      <c r="X10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="Y10" s="63" t="s">
+      <c r="Y10" s="62" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="4" customFormat="1" ht="15.75">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="60" t="s">
+      <c r="K11" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="59" t="s">
         <v>53</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -2287,33 +2326,33 @@
       </c>
     </row>
     <row r="12" spans="1:25" s="8" customFormat="1" ht="15.75">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
     </row>
     <row r="13" spans="1:25" ht="15.75">
       <c r="A13" s="25" t="s">
@@ -2580,10 +2619,10 @@
       <c r="K16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="68" t="s">
+      <c r="M16" s="67" t="s">
         <v>78</v>
       </c>
       <c r="N16" s="29" t="s">
@@ -2637,8 +2676,8 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -3071,10 +3110,10 @@
       <c r="K23" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="67" t="s">
         <v>110</v>
       </c>
       <c r="N23" s="29" t="s">
@@ -3513,8 +3552,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
@@ -3542,8 +3581,8 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
@@ -3571,8 +3610,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
@@ -3620,10 +3659,10 @@
       <c r="K32" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="68" t="s">
+      <c r="M32" s="67" t="s">
         <v>150</v>
       </c>
       <c r="N32" s="29" t="s">
@@ -3697,10 +3736,10 @@
       <c r="K33" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="68" t="s">
+      <c r="L33" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="M33" s="68" t="s">
+      <c r="M33" s="67" t="s">
         <v>175</v>
       </c>
       <c r="N33" s="29" t="s">
@@ -4080,7 +4119,7 @@
         <v>195</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>195</v>
@@ -4089,613 +4128,661 @@
         <v>195</v>
       </c>
       <c r="N38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T38" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W38" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="180">
       <c r="A39" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K39" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W39" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y39" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="173.25">
       <c r="A40" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M40" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q40" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T40" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W40" s="45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X40" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y40" s="44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="31.5">
-      <c r="A41" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="47" t="s">
+    </row>
+    <row r="41" spans="1:25" ht="15.75">
+      <c r="A41" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="L41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="M41" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="N41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="O41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="P41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="R41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="S41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="T41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="U41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="V41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="W41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="X41" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y41" s="48" t="s">
-        <v>204</v>
+      <c r="B41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="M41" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="O41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="R41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="S41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="T41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="U41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="V41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="W41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="X41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y41" s="76" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="N42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="O42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="P42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="R42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="S42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="T42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="U42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="V42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="X42" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y42" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.75">
-      <c r="A43" s="21" t="s">
+      <c r="B42" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="C42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="K42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="O42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="P42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="R42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="S42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="T42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="U42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="V42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="W42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="X42" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y42" s="79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="47.25">
+      <c r="A43" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="I43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="M43" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="R43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="S43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="T43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="U43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="V43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="W43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="X43" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y43" s="79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75">
+      <c r="A44" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="M43" s="28" t="s">
+      <c r="M44" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="N43" s="30" t="s">
+      <c r="N44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="30" t="s">
+      <c r="O44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="P43" s="30" t="s">
+      <c r="P44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="30" t="s">
+      <c r="Q44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="R43" s="30" t="s">
+      <c r="R44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="S43" s="30" t="s">
+      <c r="S44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="T43" s="30" t="s">
+      <c r="T44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="U43" s="30" t="s">
+      <c r="U44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="V43" s="30" t="s">
+      <c r="V44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="W43" s="30" t="s">
+      <c r="W44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="X43" s="30" t="s">
+      <c r="X44" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="Y43" s="30" t="s">
+      <c r="Y44" s="79" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="47.25">
-      <c r="A44" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="K44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="L44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="M44" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="N44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="O44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="P44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="R44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="S44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="T44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="U44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="V44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="W44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="X44" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y44" s="38" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="45" spans="1:25" ht="15.75">
-      <c r="A45" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="M45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="O45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="P45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="R45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="S45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="T45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="U45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="V45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="W45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="X45" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y45" s="38" t="s">
-        <v>211</v>
+      <c r="B45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="M45" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="N45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="P45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="R45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="S45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="T45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="U45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="V45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="W45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="X45" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y45" s="79" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="15.75">
-      <c r="A46" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
+      <c r="A46" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="K46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="L46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="M46" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="N46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="O46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="P46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="R46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="S46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="T46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="U46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="V46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="W46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="X46" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y46" s="79" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="47" spans="1:25" ht="15.75">
       <c r="A47" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -4724,161 +4811,161 @@
     </row>
     <row r="48" spans="1:25" ht="15.75">
       <c r="A48" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M48" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q48" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T48" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="W48" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="X48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Y48" s="29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="15.75">
       <c r="A49" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="L49" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="M49" s="68" t="s">
         <v>228</v>
       </c>
+      <c r="L49" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="M49" s="67" t="s">
+        <v>230</v>
+      </c>
       <c r="N49" s="29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O49" s="29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P49" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q49" s="30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R49" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S49" s="30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T49" s="30" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U49" s="30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V49" s="30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="W49" s="30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="X49" s="30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y49" s="39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="15.75">
       <c r="A50" s="21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B50" s="28">
         <v>3</v>
@@ -4955,7 +5042,7 @@
     </row>
     <row r="51" spans="1:25" ht="15.75">
       <c r="A51" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4984,7 +5071,7 @@
     </row>
     <row r="52" spans="1:25" ht="15.75">
       <c r="A52" s="31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B52" s="32">
         <v>59.95</v>
@@ -5061,7 +5148,7 @@
     </row>
     <row r="53" spans="1:25" ht="15.75">
       <c r="A53" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B53" s="36">
         <v>3.99</v>
@@ -5138,238 +5225,238 @@
     </row>
     <row r="54" spans="1:25" ht="15.75">
       <c r="A54" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q54" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T54" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="U54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="V54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W54" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Y54" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="15.75">
       <c r="A55" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q55" s="30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="T55" s="30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="V55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="W55" s="30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="X55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y55" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75">
       <c r="A56" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q56" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="T56" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W56" s="30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y56" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="15.75">
       <c r="A57" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B57" s="40">
         <v>3</v>
@@ -5444,115 +5531,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="52" customFormat="1" ht="15.75">
-      <c r="A58" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" s="50" t="s">
+    <row r="58" spans="1:25" s="51" customFormat="1" ht="15.75">
+      <c r="A58" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J58" s="50" t="s">
+      <c r="J58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="K58" s="50" t="s">
+      <c r="K58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="L58" s="50" t="s">
+      <c r="L58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="M58" s="50" t="s">
+      <c r="M58" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="N58" s="51" t="s">
+      <c r="N58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="O58" s="51" t="s">
+      <c r="O58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="P58" s="51" t="s">
+      <c r="P58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="Q58" s="51" t="s">
+      <c r="Q58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="R58" s="51" t="s">
+      <c r="R58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="S58" s="51" t="s">
+      <c r="S58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="T58" s="51" t="s">
+      <c r="T58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="51" t="s">
+      <c r="U58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="V58" s="51" t="s">
+      <c r="V58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="51" t="s">
+      <c r="W58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="X58" s="51" t="s">
+      <c r="X58" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="51" t="s">
+      <c r="Y58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75">
-      <c r="A59" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
+      <c r="A59" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
     </row>
     <row r="60" spans="1:25" ht="15.75">
       <c r="A60" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -5564,8 +5651,8 @@
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
       <c r="N60" s="29"/>
       <c r="O60" s="29"/>
       <c r="P60" s="29"/>
@@ -5581,7 +5668,7 @@
     </row>
     <row r="61" spans="1:25" ht="15.75">
       <c r="A61" s="21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -5593,8 +5680,8 @@
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
       <c r="N61" s="29"/>
       <c r="O61" s="29"/>
       <c r="P61" s="29"/>
@@ -5610,7 +5697,7 @@
     </row>
     <row r="62" spans="1:25" ht="15.75">
       <c r="A62" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -5622,8 +5709,8 @@
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
       <c r="N62" s="29"/>
       <c r="O62" s="29"/>
       <c r="P62" s="29"/>
@@ -5639,7 +5726,7 @@
     </row>
     <row r="63" spans="1:25" ht="15.75">
       <c r="A63" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -5651,8 +5738,8 @@
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="29"/>
       <c r="O63" s="29"/>
       <c r="P63" s="29"/>
@@ -5668,7 +5755,7 @@
     </row>
     <row r="64" spans="1:25" ht="15.75">
       <c r="A64" s="21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -5680,8 +5767,8 @@
       <c r="I64" s="28"/>
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
       <c r="N64" s="29"/>
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
@@ -5697,7 +5784,7 @@
     </row>
     <row r="65" spans="1:25" ht="15.75">
       <c r="A65" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -5709,8 +5796,8 @@
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
       <c r="N65" s="29"/>
       <c r="O65" s="29"/>
       <c r="P65" s="29"/>
@@ -5726,7 +5813,7 @@
     </row>
     <row r="66" spans="1:25" ht="15.75">
       <c r="A66" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -5738,8 +5825,8 @@
       <c r="I66" s="28"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
       <c r="N66" s="29"/>
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
@@ -5755,7 +5842,7 @@
     </row>
     <row r="67" spans="1:25" ht="15.75">
       <c r="A67" s="21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -5767,8 +5854,8 @@
       <c r="I67" s="28"/>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="68"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
       <c r="N67" s="29"/>
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
@@ -5784,7 +5871,7 @@
     </row>
     <row r="68" spans="1:25" ht="15.75">
       <c r="A68" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -5796,8 +5883,8 @@
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
       <c r="N68" s="38"/>
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
@@ -5813,7 +5900,7 @@
     </row>
     <row r="69" spans="1:25" ht="15.75">
       <c r="A69" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -5825,8 +5912,8 @@
       <c r="I69" s="28"/>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
       <c r="P69" s="29"/>
@@ -5842,7 +5929,7 @@
     </row>
     <row r="70" spans="1:25" ht="15.75">
       <c r="A70" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5854,8 +5941,8 @@
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
       <c r="P70" s="29"/>
@@ -5871,7 +5958,7 @@
     </row>
     <row r="71" spans="1:25" ht="15.75">
       <c r="A71" s="21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -5883,8 +5970,8 @@
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="67"/>
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
       <c r="P71" s="29"/>
@@ -5900,7 +5987,7 @@
     </row>
     <row r="72" spans="1:25" ht="15.75">
       <c r="A72" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -5912,8 +5999,8 @@
       <c r="I72" s="28"/>
       <c r="J72" s="28"/>
       <c r="K72" s="28"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
@@ -5929,7 +6016,7 @@
     </row>
     <row r="73" spans="1:25" ht="15.75">
       <c r="A73" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -5941,8 +6028,8 @@
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
       <c r="N73" s="29"/>
       <c r="O73" s="29"/>
       <c r="P73" s="29"/>
@@ -5958,7 +6045,7 @@
     </row>
     <row r="74" spans="1:25" ht="15.75">
       <c r="A74" s="21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -5970,8 +6057,8 @@
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
       <c r="K74" s="28"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
       <c r="N74" s="29"/>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
@@ -5987,7 +6074,7 @@
     </row>
     <row r="75" spans="1:25" ht="15.75">
       <c r="A75" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -5999,8 +6086,8 @@
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="67"/>
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
       <c r="P75" s="29"/>
@@ -6016,7 +6103,7 @@
     </row>
     <row r="76" spans="1:25" ht="15.75">
       <c r="A76" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -6028,8 +6115,8 @@
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="67"/>
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
       <c r="P76" s="29"/>
@@ -6045,7 +6132,7 @@
     </row>
     <row r="77" spans="1:25" ht="15.75">
       <c r="A77" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -6057,8 +6144,8 @@
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
-      <c r="L77" s="68"/>
-      <c r="M77" s="68"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="67"/>
       <c r="N77" s="29"/>
       <c r="O77" s="29"/>
       <c r="P77" s="29"/>
@@ -6074,7 +6161,7 @@
     </row>
     <row r="78" spans="1:25" ht="15.75">
       <c r="A78" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -6086,8 +6173,8 @@
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="67"/>
       <c r="N78" s="29"/>
       <c r="O78" s="29"/>
       <c r="P78" s="29"/>
@@ -6103,7 +6190,7 @@
     </row>
     <row r="79" spans="1:25" ht="15.75">
       <c r="A79" s="21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -6115,8 +6202,8 @@
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
       <c r="N79" s="29"/>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
@@ -6132,7 +6219,7 @@
     </row>
     <row r="80" spans="1:25" ht="15.75">
       <c r="A80" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -6144,8 +6231,8 @@
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
       <c r="P80" s="29"/>
@@ -6161,7 +6248,7 @@
     </row>
     <row r="81" spans="1:25" ht="15.75">
       <c r="A81" s="21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -6173,8 +6260,8 @@
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="68"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="67"/>
       <c r="N81" s="29"/>
       <c r="O81" s="29"/>
       <c r="P81" s="29"/>
@@ -6202,8 +6289,8 @@
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
       <c r="N82" s="38"/>
       <c r="O82" s="38"/>
       <c r="P82" s="38"/>
@@ -6231,8 +6318,8 @@
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
       <c r="N83" s="29"/>
       <c r="O83" s="29"/>
       <c r="P83" s="29"/>
@@ -6248,7 +6335,7 @@
     </row>
     <row r="84" spans="1:25" ht="15.75">
       <c r="A84" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -6260,8 +6347,8 @@
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
       <c r="K84" s="28"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
       <c r="N84" s="29"/>
       <c r="O84" s="29"/>
       <c r="P84" s="29"/>
@@ -6289,8 +6376,8 @@
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
       <c r="N85" s="29"/>
       <c r="O85" s="29"/>
       <c r="P85" s="29"/>
@@ -6318,8 +6405,8 @@
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
       <c r="N86" s="29"/>
       <c r="O86" s="29"/>
       <c r="P86" s="29"/>
@@ -6335,7 +6422,7 @@
     </row>
     <row r="87" spans="1:25" ht="15.75">
       <c r="A87" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -6347,8 +6434,8 @@
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
       <c r="K87" s="28"/>
-      <c r="L87" s="68"/>
-      <c r="M87" s="68"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
       <c r="N87" s="29"/>
       <c r="O87" s="29"/>
       <c r="P87" s="29"/>
@@ -6364,7 +6451,7 @@
     </row>
     <row r="88" spans="1:25" ht="15.75">
       <c r="A88" s="21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -6376,8 +6463,8 @@
       <c r="I88" s="28"/>
       <c r="J88" s="28"/>
       <c r="K88" s="28"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="68"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
       <c r="N88" s="29"/>
       <c r="O88" s="29"/>
       <c r="P88" s="29"/>
@@ -6393,7 +6480,7 @@
     </row>
     <row r="89" spans="1:25" ht="15.75">
       <c r="A89" s="21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -6405,8 +6492,8 @@
       <c r="I89" s="28"/>
       <c r="J89" s="28"/>
       <c r="K89" s="28"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="68"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
       <c r="N89" s="29"/>
       <c r="O89" s="29"/>
       <c r="P89" s="29"/>
@@ -6422,7 +6509,7 @@
     </row>
     <row r="90" spans="1:25" ht="15.75">
       <c r="A90" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -6434,8 +6521,8 @@
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
       <c r="K90" s="28"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="68"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
       <c r="N90" s="29"/>
       <c r="O90" s="29"/>
       <c r="P90" s="29"/>
@@ -6463,8 +6550,8 @@
       <c r="I91" s="28"/>
       <c r="J91" s="28"/>
       <c r="K91" s="28"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="68"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
       <c r="N91" s="29"/>
       <c r="O91" s="29"/>
       <c r="P91" s="29"/>
@@ -6480,7 +6567,7 @@
     </row>
     <row r="92" spans="1:25" ht="15.75">
       <c r="A92" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -6492,8 +6579,8 @@
       <c r="I92" s="28"/>
       <c r="J92" s="28"/>
       <c r="K92" s="28"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="68"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
       <c r="N92" s="29"/>
       <c r="O92" s="29"/>
       <c r="P92" s="29"/>
@@ -6509,7 +6596,7 @@
     </row>
     <row r="93" spans="1:25" ht="15.75">
       <c r="A93" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -6521,8 +6608,8 @@
       <c r="I93" s="28"/>
       <c r="J93" s="28"/>
       <c r="K93" s="28"/>
-      <c r="L93" s="68"/>
-      <c r="M93" s="68"/>
+      <c r="L93" s="67"/>
+      <c r="M93" s="67"/>
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
       <c r="P93" s="29"/>
@@ -6538,7 +6625,7 @@
     </row>
     <row r="94" spans="1:25" ht="15.75">
       <c r="A94" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -6550,8 +6637,8 @@
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
       <c r="K94" s="28"/>
-      <c r="L94" s="68"/>
-      <c r="M94" s="68"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="67"/>
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
       <c r="P94" s="29"/>
@@ -6567,7 +6654,7 @@
     </row>
     <row r="95" spans="1:25" ht="15.75">
       <c r="A95" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -6579,8 +6666,8 @@
       <c r="I95" s="28"/>
       <c r="J95" s="28"/>
       <c r="K95" s="28"/>
-      <c r="L95" s="68"/>
-      <c r="M95" s="68"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
       <c r="P95" s="29"/>
@@ -6596,7 +6683,7 @@
     </row>
     <row r="96" spans="1:25" ht="15.75">
       <c r="A96" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -6608,8 +6695,8 @@
       <c r="I96" s="28"/>
       <c r="J96" s="28"/>
       <c r="K96" s="28"/>
-      <c r="L96" s="68"/>
-      <c r="M96" s="68"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="67"/>
       <c r="N96" s="29"/>
       <c r="O96" s="29"/>
       <c r="P96" s="29"/>
@@ -6625,7 +6712,7 @@
     </row>
     <row r="97" spans="1:25" ht="15.75">
       <c r="A97" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -6637,8 +6724,8 @@
       <c r="I97" s="28"/>
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
-      <c r="L97" s="68"/>
-      <c r="M97" s="68"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="67"/>
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>
       <c r="P97" s="29"/>
@@ -6654,7 +6741,7 @@
     </row>
     <row r="98" spans="1:25" ht="15.75">
       <c r="A98" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -6666,8 +6753,8 @@
       <c r="I98" s="28"/>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
-      <c r="L98" s="68"/>
-      <c r="M98" s="68"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
       <c r="N98" s="29"/>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
@@ -6683,7 +6770,7 @@
     </row>
     <row r="99" spans="1:25" ht="15.75">
       <c r="A99" s="21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -6695,8 +6782,8 @@
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
       <c r="K99" s="28"/>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="67"/>
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
       <c r="P99" s="29"/>
@@ -6712,7 +6799,7 @@
     </row>
     <row r="100" spans="1:25" ht="15.75">
       <c r="A100" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -6724,8 +6811,8 @@
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="69"/>
+      <c r="L100" s="68"/>
+      <c r="M100" s="68"/>
       <c r="N100" s="38"/>
       <c r="O100" s="38"/>
       <c r="P100" s="38"/>
@@ -6741,7 +6828,7 @@
     </row>
     <row r="101" spans="1:25" ht="15.75">
       <c r="A101" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -6753,8 +6840,8 @@
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="69"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
       <c r="N101" s="38"/>
       <c r="O101" s="38"/>
       <c r="P101" s="38"/>
@@ -6770,7 +6857,7 @@
     </row>
     <row r="102" spans="1:25" ht="15.75">
       <c r="A102" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -6782,8 +6869,8 @@
       <c r="I102" s="28"/>
       <c r="J102" s="28"/>
       <c r="K102" s="28"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="68"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="67"/>
       <c r="N102" s="29"/>
       <c r="O102" s="29"/>
       <c r="P102" s="29"/>
@@ -6799,7 +6886,7 @@
     </row>
     <row r="103" spans="1:25" ht="15.75">
       <c r="A103" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -6811,8 +6898,8 @@
       <c r="I103" s="28"/>
       <c r="J103" s="28"/>
       <c r="K103" s="28"/>
-      <c r="L103" s="68"/>
-      <c r="M103" s="68"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="67"/>
       <c r="N103" s="29"/>
       <c r="O103" s="29"/>
       <c r="P103" s="29"/>
@@ -6827,33 +6914,33 @@
       <c r="Y103" s="30"/>
     </row>
     <row r="104" spans="1:25" ht="15.75">
-      <c r="A104" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="58"/>
-      <c r="Q104" s="58"/>
-      <c r="R104" s="58"/>
-      <c r="S104" s="58"/>
-      <c r="T104" s="58"/>
-      <c r="U104" s="58"/>
-      <c r="V104" s="58"/>
-      <c r="W104" s="58"/>
-      <c r="X104" s="58"/>
-      <c r="Y104" s="58"/>
+      <c r="A104" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="57"/>
+      <c r="N104" s="57"/>
+      <c r="O104" s="57"/>
+      <c r="P104" s="57"/>
+      <c r="Q104" s="57"/>
+      <c r="R104" s="57"/>
+      <c r="S104" s="57"/>
+      <c r="T104" s="57"/>
+      <c r="U104" s="57"/>
+      <c r="V104" s="57"/>
+      <c r="W104" s="57"/>
+      <c r="X104" s="57"/>
+      <c r="Y104" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6874,15 +6961,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -7047,14 +7125,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>